--- a/biology/Zoologie/Arthromygale_fortis/Arthromygale_fortis.xlsx
+++ b/biology/Zoologie/Arthromygale_fortis/Arthromygale_fortis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthromygale
-Arthromygale fortis, unique représentant du genre Arthromygale, est une espèce fossile d'araignées de la famille des Arthromygalidae[1].
+Arthromygale fortis, unique représentant du genre Arthromygale, est une espèce fossile d'araignées de la famille des Arthromygalidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte à Rakovník en Tchéquie. Elle date du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte à Rakovník en Tchéquie. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype mesure 16 mm, dont 6 mm pour la carapace et 10 mm pour l'abdomen. L'abdomen de cette araignée est segmenté, ce qui est un caractère primitif.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fritsch, 1904 : Palaeozoische Arachniden. Prague, p. 1–85 (texte intégral).
 Petrunkevitch, 1923 : On families of spiders. Annals of the New York Academy of Sciences, vol. 29, p. 145-180.</t>
